--- a/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
+++ b/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -858,9 +858,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives calculations based on numerous sources. Development finance institutions: Development Initiatives calculations based on a review of DFIsï¿½ annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD and national sources (see Foreign direct investment in developing countries indicator). Disbursements and capital and interest repayments on official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1248,12 +1245,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9">
@@ -1263,22 +1260,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14">
@@ -1294,11 +1291,6 @@
     <row r="16">
       <c r="A16" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
+++ b/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>id</t>
   </si>
@@ -644,10 +644,10 @@
     <t>ssc-in</t>
   </si>
   <si>
-    <t>SSC</t>
-  </si>
-  <si>
-    <t>South-south cooperation</t>
+    <t>Dev coop</t>
+  </si>
+  <si>
+    <t>Development cooperation</t>
   </si>
   <si>
     <t>grey-mid</t>
@@ -662,7 +662,7 @@
     <t>ssc-out</t>
   </si>
   <si>
-    <t>Estimates of south-south cooperation</t>
+    <t>Estimates of development cooperation</t>
   </si>
   <si>
     <t>Development Initiatives calculations based on national sources</t>
@@ -851,13 +851,13 @@
     <t>Name: intl-flows-donors-wide</t>
   </si>
   <si>
-    <t>Description: Estimates of resources flowing to and from developing countries</t>
+    <t>Description: International resource flows to and from developed countries</t>
   </si>
   <si>
     <t>Units of measure: constant 2012 US$ millions</t>
   </si>
   <si>
-    <t>Source: Development Initiatives calculations based on numerous sources. Development finance institutions: Development Initiatives calculations based on a review of DFIsï¿½ annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD and national sources (see Foreign direct investment in developing countries indicator). Disbursements and capital and interest repayments on official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
+    <t>Source: Development Initiatives calculations based on numerous sources. Development finance institutions: Development Initiatives calculations based on a review of DFIs' annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD and national sources (see Foreign direct investment in developing countries indicator). Disbursements and capital and interest repayments on official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
   </si>
   <si>
     <t/>
@@ -875,7 +875,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1293,6 +1296,11 @@
         <v>288</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
+++ b/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>id</t>
   </si>
@@ -416,7 +416,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>US</t>
@@ -647,6 +647,9 @@
     <t>Development cooperation</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
     <t>grey-mid</t>
   </si>
   <si>
@@ -857,7 +860,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1191,87 +1194,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -27949,22 +27952,22 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
         <v>209</v>
@@ -27986,27 +27989,27 @@
         <v> 1</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" t="n">
         <v> 4</v>
@@ -28025,16 +28028,16 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s">
         <v>188</v>
@@ -28042,7 +28045,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
         <v>190</v>
@@ -28064,24 +28067,24 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J20" t="s">
         <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
         <v>194</v>
       </c>
       <c r="M20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
         <v>190</v>
@@ -28103,19 +28106,19 @@
         <v> 2</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
         <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -28142,25 +28145,25 @@
         <v> 3</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
         <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C23" t="n">
         <v> 6</v>
@@ -28179,23 +28182,23 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" t="n">
         <v> 7</v>
@@ -28214,16 +28217,16 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s">
         <v>188</v>
@@ -28231,10 +28234,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" t="n">
         <v> 7</v>
@@ -28253,16 +28256,16 @@
         <v> 1</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s">
         <v>174</v>
@@ -28270,10 +28273,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" t="n">
         <v> 7</v>
@@ -28292,16 +28295,16 @@
         <v> 2</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s">
         <v>177</v>
@@ -28309,10 +28312,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" t="n">
         <v> 8</v>
@@ -28331,27 +28334,27 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
         <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" t="n">
         <v> 8</v>
@@ -28370,14 +28373,14 @@
         <v> 1</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
         <v>148</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s">
         <v>177</v>
@@ -28385,7 +28388,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
         <v>196</v>
@@ -28417,12 +28420,12 @@
         <v>199</v>
       </c>
       <c r="M29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s">
         <v>196</v>
@@ -28454,15 +28457,15 @@
         <v>199</v>
       </c>
       <c r="M30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
@@ -28481,22 +28484,22 @@
         <v> 1</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s">
         <v>154</v>
@@ -28518,24 +28521,24 @@
         <v> 2</v>
       </c>
       <c r="I32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
         <v>184</v>
@@ -28559,7 +28562,7 @@
         <v>156</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s">
         <v>187</v>
@@ -28570,10 +28573,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
@@ -28588,17 +28591,17 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
         <v>187</v>
       </c>
       <c r="M34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
+++ b/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>id</t>
   </si>
@@ -476,18 +476,6 @@
     <t>red-high</t>
   </si>
   <si>
-    <t>illicit</t>
-  </si>
-  <si>
-    <t>Illicit finance</t>
-  </si>
-  <si>
-    <t>Illicit finance captures estimates of the scale of illicit financial flows</t>
-  </si>
-  <si>
-    <t>purple-high</t>
-  </si>
-  <si>
     <t>flow.category</t>
   </si>
   <si>
@@ -573,6 +561,9 @@
   </si>
   <si>
     <t>Development Finance Institutions</t>
+  </si>
+  <si>
+    <t>purple-high</t>
   </si>
   <si>
     <t>Activities by bilateral development finance institutions (excluding those reported as ODA or OOFs)</t>
@@ -788,6 +779,9 @@
     <t>Trade mispricing</t>
   </si>
   <si>
+    <t>illicit</t>
+  </si>
+  <si>
     <t>red-mid</t>
   </si>
   <si>
@@ -795,6 +789,9 @@
   </si>
   <si>
     <t>illicit-financing-out</t>
+  </si>
+  <si>
+    <t>Illicit finance</t>
   </si>
   <si>
     <t>Illicit Finance</t>
@@ -822,6 +819,24 @@
   </si>
   <si>
     <t>purple-mid</t>
+  </si>
+  <si>
+    <t>pda-out</t>
+  </si>
+  <si>
+    <t>out-debt-relief</t>
+  </si>
+  <si>
+    <t>Debt relief</t>
+  </si>
+  <si>
+    <t>out-oda-net-excl-debt-relief</t>
+  </si>
+  <si>
+    <t>Net ODA excluding debt relief</t>
+  </si>
+  <si>
+    <t>ODA excluding debt relief</t>
   </si>
   <si>
     <t>Name: intl-flows-donors-wide</t>
@@ -1194,87 +1209,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -27285,21 +27300,6 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -27319,25 +27319,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>136</v>
@@ -27352,7 +27352,7 @@
         <v>138</v>
       </c>
       <c r="M1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -27360,16 +27360,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" t="n">
         <v> 1</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>140</v>
@@ -27379,19 +27379,19 @@
         <v> 1</v>
       </c>
       <c r="I2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
         <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
@@ -27399,16 +27399,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" t="n">
         <v> 1</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>140</v>
@@ -27418,19 +27418,19 @@
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
@@ -27438,16 +27438,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
         <v> 1</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>140</v>
@@ -27457,19 +27457,19 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
         <v>152</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -27477,16 +27477,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C5" t="n">
         <v> 2</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
         <v>140</v>
@@ -27496,19 +27496,19 @@
         <v> 1</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
         <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -27516,16 +27516,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
         <v> 2</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
         <v>140</v>
@@ -27535,19 +27535,19 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
         <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -27555,16 +27555,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" t="n">
         <v> 2</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
         <v>140</v>
@@ -27574,19 +27574,19 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J7" t="s">
         <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -27594,16 +27594,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
         <v> 3</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
         <v>140</v>
@@ -27613,36 +27613,36 @@
         <v> 1</v>
       </c>
       <c r="I8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" t="s">
         <v>185</v>
-      </c>
-      <c r="J8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K8" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" t="s">
-        <v>187</v>
-      </c>
-      <c r="M8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" t="n">
         <v> 4</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -27652,19 +27652,19 @@
         <v> 1</v>
       </c>
       <c r="I9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" t="s">
         <v>191</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>192</v>
-      </c>
-      <c r="K9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" t="s">
-        <v>194</v>
-      </c>
-      <c r="M9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10">
@@ -27672,16 +27672,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C10" t="n">
         <v> 5</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>149</v>
@@ -27691,36 +27691,36 @@
         <v> 1</v>
       </c>
       <c r="I10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M10" t="s">
         <v>197</v>
-      </c>
-      <c r="J10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L10" t="s">
-        <v>199</v>
-      </c>
-      <c r="M10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C11" t="n">
         <v> 1</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>140</v>
@@ -27730,34 +27730,34 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J11" t="s">
         <v>152</v>
       </c>
       <c r="K11"/>
       <c r="L11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C12" t="n">
         <v> 1</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
         <v>140</v>
@@ -27767,34 +27767,34 @@
         <v> 1</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>152</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
         <v> 1</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
         <v>140</v>
@@ -27804,34 +27804,34 @@
         <v> 2</v>
       </c>
       <c r="I13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J13" t="s">
         <v>152</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
         <v> 2</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -27841,34 +27841,34 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J14" t="s">
         <v>144</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" t="n">
         <v> 2</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
         <v>140</v>
@@ -27878,34 +27878,34 @@
         <v> 1</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
         <v>144</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" t="n">
         <v> 2</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -27915,34 +27915,34 @@
         <v> 2</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
         <v>144</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C17" t="n">
         <v> 3</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -27952,34 +27952,34 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" t="n">
         <v> 3</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F18" t="s">
         <v>140</v>
@@ -27989,36 +27989,36 @@
         <v> 1</v>
       </c>
       <c r="I18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" t="n">
         <v> 4</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F19" t="s">
         <v>140</v>
@@ -28028,36 +28028,36 @@
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
+        <v>217</v>
+      </c>
+      <c r="J19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" t="s">
         <v>220</v>
       </c>
-      <c r="J19" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" t="s">
-        <v>222</v>
-      </c>
-      <c r="L19" t="s">
-        <v>223</v>
-      </c>
       <c r="M19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C20" t="n">
         <v> 5</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F20" t="s">
         <v>145</v>
@@ -28067,36 +28067,36 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C21" t="n">
         <v> 5</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s">
         <v>145</v>
@@ -28106,19 +28106,19 @@
         <v> 2</v>
       </c>
       <c r="I21" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>227</v>
+      </c>
+      <c r="L21" t="s">
+        <v>228</v>
+      </c>
+      <c r="M21" t="s">
         <v>229</v>
-      </c>
-      <c r="J21" t="s">
-        <v>192</v>
-      </c>
-      <c r="K21" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" t="s">
-        <v>231</v>
-      </c>
-      <c r="M21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -28126,16 +28126,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" t="n">
         <v> 5</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
         <v>145</v>
@@ -28145,34 +28145,34 @@
         <v> 3</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L22"/>
       <c r="M22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C23" t="n">
         <v> 6</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
         <v>145</v>
@@ -28182,32 +28182,32 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" t="n">
         <v> 7</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
@@ -28217,36 +28217,36 @@
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C25" t="n">
         <v> 7</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
@@ -28256,36 +28256,36 @@
         <v> 1</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C26" t="n">
         <v> 7</v>
       </c>
       <c r="D26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -28295,36 +28295,36 @@
         <v> 2</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C27" t="n">
         <v> 8</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
@@ -28334,36 +28334,36 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
         <v>148</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M27" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" t="n">
         <v> 8</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -28373,34 +28373,34 @@
         <v> 1</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
         <v>148</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C29" t="n">
         <v> 9</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -28410,34 +28410,34 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" t="n">
         <v> 9</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
         <v>149</v>
@@ -28447,108 +28447,104 @@
         <v> 1</v>
       </c>
       <c r="I30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C31"/>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="n">
         <v> 1</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K31"/>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C32"/>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="n">
         <v> 2</v>
       </c>
       <c r="I32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J32" t="s">
         <v>260</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>261</v>
       </c>
-      <c r="K32" t="s">
-        <v>262</v>
-      </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" t="s">
         <v>140</v>
@@ -28556,34 +28552,34 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" t="s">
         <v>185</v>
-      </c>
-      <c r="J33" t="s">
-        <v>156</v>
-      </c>
-      <c r="K33" t="s">
-        <v>264</v>
-      </c>
-      <c r="L33" t="s">
-        <v>187</v>
-      </c>
-      <c r="M33" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
         <v>265</v>
-      </c>
-      <c r="B34" t="s">
-        <v>266</v>
       </c>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" t="s">
         <v>149</v>
@@ -28591,17 +28587,116 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
         <v>267</v>
-      </c>
-      <c r="J34" t="s">
-        <v>268</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35" t="s">
+        <v>184</v>
+      </c>
+      <c r="M35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
+++ b/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
@@ -998,10 +998,10 @@
     <t xml:space="preserve">Name: intl-flows-donors-wide</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Estimates of international resource flows from developed countries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: constant 2012 US$ millions</t>
+    <t xml:space="preserve">Description: Estimates of international resource flows from developed countries, 2015 US$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on numerous sources. Note that data of some flows is missing. Development finance institutions: Development Initiatives calculations based on a review of DFIs' annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD. Disbursements of official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>

--- a/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
+++ b/user-data/intl-flows-donors-wide/intl-flows-donors-wide.xlsx
@@ -998,10 +998,10 @@
     <t xml:space="preserve">Name: intl-flows-donors-wide</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Estimates of international resource flows from developed countries, 2015 US$.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
+    <t xml:space="preserve">Description: Estimates of international resource flows from developed countries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure: constant 2012 US$ millions</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on numerous sources. Note that data of some flows is missing. Development finance institutions: Development Initiatives calculations based on a review of DFIs' annual reports (with flows reported as ODA or OOFs subtracted). Foreign direct investment: OECD. Disbursements of official development assistance and other official flows: OECD DAC. Remittances: World Bank Migration and Remittances Factbook.</t>
